--- a/doc/IM 客户端错误码整理.xlsx
+++ b/doc/IM 客户端错误码整理.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\IGIM\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2600" yWindow="0" windowWidth="17260" windowHeight="16000"/>
+    <workbookView xWindow="2595" yWindow="0" windowWidth="17265" windowHeight="16005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Json异常（21000）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,43 +37,155 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>文件上传与下载（25000）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP请求（26000）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端异常（30000）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库异常（27000）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误码说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件操作I／O异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件操作无权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数不合法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDK初始化参数不合法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录参数不合法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户已下线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音资源上传失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音资源下载失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片资源上传失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片资源下载失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频资源上传失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频资源下载失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不支持文件下载的消息类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效的网络请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>响应数据为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端Json解析错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDK内部Json解析错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDK外部Json解析错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三方库类（28000）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speex编解码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长连接请求超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息发送失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口参数异常（23000）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源上传失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源下载失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件不存在或数据为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息构建失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组列表为空（获取离线消息前，需先获取所在的群组列表）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>用户离线（24000）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文件上传与下载（25000）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HTTP请求（26000）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务端异常（30000）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库异常（27000）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误码说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件操作I／O异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件操作无权限</t>
+    <t>用户登录，创建Socket失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与服务器连接已断开</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -76,107 +193,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参数不合法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDK初始化参数不合法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录参数不合法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户已下线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语音资源上传失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>语音资源下载失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片资源上传失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片资源下载失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频资源上传失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频资源下载失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不支持文件下载的消息类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无效的网络请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>响应数据为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务端Json解析错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDK内部Json解析错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDK外部Json解析错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三方库类（28000）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>speex编解码错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长连接请求超时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与服务器连接已断开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息发送失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口参数异常（23000）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源上传失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源下载失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文件不存在或数据为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息构建失败</t>
+    <t>文件过大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +528,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -529,8 +550,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="87">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -574,50 +599,49 @@
     <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -887,7 +911,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -895,325 +919,362 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="53.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.83203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="45.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="32.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="38.33203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="35.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="53.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="84.5" style="1" customWidth="1"/>
+    <col min="4" max="5" width="45.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="31.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="38.375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>21001</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="6"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="7"/>
       <c r="B3" s="3">
         <v>21002</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="6"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="7"/>
       <c r="B4" s="3">
         <v>21003</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="3">
         <v>22001</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="6"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
       <c r="B6" s="3">
         <v>22002</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="7"/>
       <c r="B7" s="3">
         <v>22003</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="6" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="B8" s="3">
         <v>23001</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="6"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="7"/>
       <c r="B9" s="3">
         <v>23002</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
       <c r="B10" s="3">
         <v>23003</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="6"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
       <c r="B11" s="3">
         <v>23004</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="6"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
       <c r="B12" s="4">
         <v>23005</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="6">
+        <v>23006</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="4">
+        <v>23007</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="5">
+        <v>24001</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="5">
+        <v>24002</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="4">
-        <v>23006</v>
-      </c>
-      <c r="C13" s="2" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3">
+        <v>25001</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="7"/>
+      <c r="B18" s="3">
+        <v>25002</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="7"/>
+      <c r="B19" s="3">
+        <v>25003</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="7"/>
+      <c r="B20" s="3">
+        <v>25004</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="7"/>
+      <c r="B21" s="3">
+        <v>25005</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="7"/>
+      <c r="B22" s="3">
+        <v>25006</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="7"/>
+      <c r="B23" s="3">
+        <v>25007</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" s="7"/>
+      <c r="B24" s="4">
+        <v>25008</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="7"/>
+      <c r="B25" s="6">
+        <v>25009</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="5">
-        <v>24001</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="6" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="7"/>
+      <c r="B26" s="4">
+        <v>25010</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="3">
-        <v>25001</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="3">
-        <v>25002</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="3">
-        <v>25003</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="3">
-        <v>25004</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="3">
-        <v>25005</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="3">
-        <v>25006</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="B27" s="3">
+        <v>26001</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="3">
-        <v>25007</v>
-      </c>
-      <c r="C21" s="2" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="7"/>
+      <c r="B28" s="3">
+        <v>26002</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="4">
-        <v>25008</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="4">
-        <v>25009</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="6" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="7"/>
+      <c r="B29" s="4">
+        <v>26003</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="7"/>
+      <c r="B30" s="6">
+        <v>26004</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="7"/>
+      <c r="B31" s="4">
+        <v>26005</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="4">
+        <v>28001</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="3">
-        <v>26001</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="3">
-        <v>26002</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="4">
-        <v>26003</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="4">
-        <v>26004</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="4">
-        <v>28001</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="5" t="s">
-        <v>5</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A15:A23"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A17:A26"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/doc/IM 客户端错误码整理.xlsx
+++ b/doc/IM 客户端错误码整理.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\work\IGIM\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IM\IGIM\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Json异常（21000）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,6 +198,26 @@
   </si>
   <si>
     <t>网络问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他包错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音频录制与播放（29000）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>录制音频失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放音频失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -528,7 +548,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -546,6 +566,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -919,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="22.5" x14ac:dyDescent="0.15"/>
@@ -950,7 +973,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3">
@@ -961,7 +984,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="3">
         <v>21002</v>
       </c>
@@ -970,7 +993,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="3">
         <v>21003</v>
       </c>
@@ -979,7 +1002,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="3">
@@ -990,7 +1013,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="3">
         <v>22002</v>
       </c>
@@ -999,7 +1022,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="3">
         <v>22003</v>
       </c>
@@ -1008,7 +1031,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="3">
@@ -1019,7 +1042,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="3">
         <v>23002</v>
       </c>
@@ -1028,7 +1051,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="3">
         <v>23003</v>
       </c>
@@ -1037,7 +1060,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="3">
         <v>23004</v>
       </c>
@@ -1046,7 +1069,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
+      <c r="A12" s="8"/>
       <c r="B12" s="4">
         <v>23005</v>
       </c>
@@ -1055,7 +1078,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="6">
         <v>23006</v>
       </c>
@@ -1064,7 +1087,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="4">
         <v>23007</v>
       </c>
@@ -1073,7 +1096,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="5">
@@ -1084,7 +1107,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="5">
         <v>24002</v>
       </c>
@@ -1093,7 +1116,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="3">
@@ -1104,7 +1127,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="7"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="3">
         <v>25002</v>
       </c>
@@ -1113,7 +1136,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="7"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="3">
         <v>25003</v>
       </c>
@@ -1122,7 +1145,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="3">
         <v>25004</v>
       </c>
@@ -1131,7 +1154,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="7"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="3">
         <v>25005</v>
       </c>
@@ -1140,7 +1163,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="7"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="3">
         <v>25006</v>
       </c>
@@ -1149,7 +1172,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="7"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="3">
         <v>25007</v>
       </c>
@@ -1158,7 +1181,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="7"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="4">
         <v>25008</v>
       </c>
@@ -1167,7 +1190,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="7"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="6">
         <v>25009</v>
       </c>
@@ -1176,7 +1199,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="7"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="4">
         <v>25010</v>
       </c>
@@ -1185,7 +1208,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="3">
@@ -1196,7 +1219,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="7"/>
+      <c r="A28" s="8"/>
       <c r="B28" s="3">
         <v>26002</v>
       </c>
@@ -1205,7 +1228,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="7"/>
+      <c r="A29" s="8"/>
       <c r="B29" s="4">
         <v>26003</v>
       </c>
@@ -1214,7 +1237,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="7"/>
+      <c r="A30" s="8"/>
       <c r="B30" s="6">
         <v>26004</v>
       </c>
@@ -1223,7 +1246,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="7"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="4">
         <v>26005</v>
       </c>
@@ -1245,21 +1268,54 @@
       <c r="A34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="B34" s="1">
+        <v>27000</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B35" s="4">
+        <v>28000</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7">
         <v>28001</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="5" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="1">
+        <v>29001</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B38" s="1">
+        <v>29002</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="5" t="s">
         <v>4</v>
       </c>
     </row>
